--- a/part1/tables-1/dom_validty_part-1.xlsx
+++ b/part1/tables-1/dom_validty_part-1.xlsx
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>-1.4729</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>-1.3557</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>-0.9337</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-0.2947</v>
+        <v>0.8434</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>-0.9756</v>
+        <v>0.3787</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>-0.4878</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>-0.5722</v>
+        <v>0.7099</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.1155</v>
+        <v>0.8114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.305</v>
+        <v>0.8943</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>-0.5959</v>
+        <v>0.4343</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>-0.2379</v>
+        <v>0.6019</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0.0844</v>
+        <v>0.7359</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.3278</v>
+        <v>0.8189</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.5564</v>
+        <v>0.8538</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>-0.0751</v>
+        <v>0.5887</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0.2853</v>
+        <v>0.7729</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.5349</v>
+        <v>0.8629</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>0.6383</v>
+        <v>0.8946</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>0.0785</v>
+        <v>0.6542</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.2094</v>
+        <v>0.6995</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -634,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>0.4642</v>
+        <v>0.8085</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>0.5988</v>
+        <v>0.8594000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0.1074</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0.2951</v>
+        <v>0.6578000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.4034</v>
+        <v>0.7237</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>0.5443</v>
+        <v>0.7936</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>-1.4309</v>
+        <v>0.3495</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>-1.2054</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>-1.0355</v>
+        <v>0.7105</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>-0.3054</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>-1.0238</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>-0.4932</v>
+        <v>0.5142</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>-0.6479</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>0.0279</v>
+        <v>0.7927</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>0.3441</v>
+        <v>0.9003</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>-0.5906</v>
+        <v>0.4361</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>-0.223</v>
+        <v>0.6067</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>0.0844</v>
+        <v>0.7359</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>0.3278</v>
+        <v>0.8189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>0.5643</v>
+        <v>0.8564000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>-0.0751</v>
+        <v>0.5887</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>0.2755</v>
+        <v>0.7698</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>0.5349</v>
+        <v>0.8629</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>0.6182</v>
+        <v>0.8887</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>0.0655</v>
+        <v>0.6493</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>0.2537</v>
+        <v>0.7163</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>0.4447</v>
+        <v>0.8016</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>0.5667</v>
+        <v>0.8482</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>0.1093</v>
+        <v>0.5441</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>0.2863</v>
+        <v>0.6535</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>0.3757</v>
+        <v>0.7108</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0.522</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>-1.4368</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>-1.6448</v>
+        <v>0.4087</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>-1.2976</v>
+        <v>0.6463</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>-0.8134</v>
+        <v>0.7664</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>-0.9321</v>
+        <v>0.3597</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>-0.5336</v>
+        <v>0.4795</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>-0.6830000000000001</v>
+        <v>0.6725</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>-0.0189</v>
+        <v>0.7719</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>0.1291</v>
+        <v>0.8627</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>-0.6432</v>
+        <v>0.3957</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>-0.2322</v>
+        <v>0.5883</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>-0.022</v>
+        <v>0.6931</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.2791</v>
+        <v>0.8005</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>0.5528</v>
+        <v>0.8494</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1140,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>-0.0477</v>
+        <v>0.5857</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>0.2255</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>0.5197000000000001</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>0.6579</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>0.0586</v>
+        <v>0.6363</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>0.2645</v>
+        <v>0.7133</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>0.4731</v>
+        <v>0.8072</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>0.6051</v>
+        <v>0.8589</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>0.1222</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>0.2913</v>
+        <v>0.6466</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>0.4246</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>0.5821</v>
+        <v>0.8076</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>-1.5169</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1291,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>-1.4156</v>
+        <v>0.4907</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1302,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>-0.8046</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>-0.7435</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>-1.0418</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>-0.2822</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>0.0897</v>
+        <v>0.8332000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>-0.7897999999999999</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>-0.5556</v>
+        <v>0.4038</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1387,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>-0.29</v>
+        <v>0.5566</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>0.167</v>
+        <v>0.7413999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="D93">
-        <v>0.4645</v>
+        <v>0.8105</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>-0.1473</v>
+        <v>0.4888</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>-0.0259</v>
+        <v>0.6195000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>0.3096</v>
+        <v>0.7662</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>0.4719</v>
+        <v>0.8325</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1464,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <v>-0.2653</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>0.0321</v>
+        <v>0.5810999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>0.278</v>
+        <v>0.7092000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>0.4469</v>
+        <v>0.7893</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>-0.1063</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1519,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>0.089</v>
+        <v>0.5116000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>0.2649</v>
+        <v>0.6236</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1541,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>0.4257</v>
+        <v>0.7185</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <v>-1.0015</v>
+        <v>0.5694</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1563,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>-0.8931</v>
+        <v>0.6883</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1574,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <v>-0.4201</v>
+        <v>0.8379</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1585,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>-0.0844</v>
+        <v>0.8807</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>-0.5668</v>
+        <v>0.5837</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>-0.0244</v>
+        <v>0.7066</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>-0.0741</v>
+        <v>0.8312</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>0.4843</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>0.5565</v>
+        <v>0.9316</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>-0.1732</v>
+        <v>0.6194</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>0.162</v>
+        <v>0.7518</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>0.421</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>0.6363</v>
+        <v>0.9008</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>0.6808</v>
+        <v>0.8888</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>0.3258</v>
+        <v>0.7583</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -1717,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>0.5482</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>0.7468</v>
+        <v>0.9256</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="D123">
-        <v>0.7697000000000001</v>
+        <v>0.9294</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>0.3354</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>0.5649</v>
+        <v>0.8411999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1772,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>0.7198</v>
+        <v>0.9008</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>0.7628</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>0.3888</v>
+        <v>0.6987</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>0.5416</v>
+        <v>0.7834</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>0.662</v>
+        <v>0.8447</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -1827,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>0.7405</v>
+        <v>0.8804</v>
       </c>
     </row>
   </sheetData>

--- a/part1/tables-1/dom_validty_part-1.xlsx
+++ b/part1/tables-1/dom_validty_part-1.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K5\OneDrive\coder\tez\python_neural\part1\tables-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="part1 domain exceedence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -28,14 +33,20 @@
     <t>q_err</t>
   </si>
   <si>
+    <t>q_s</t>
+  </si>
+  <si>
+    <t>q_ANN</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +195,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,1429 +428,2209 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.3382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.33824199999999999</v>
+      </c>
+      <c r="E2">
+        <v>1.7229999999999999E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.5099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.50985499999999995</v>
+      </c>
+      <c r="E3">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="F3">
+        <v>3.8699999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.72498700000000005</v>
+      </c>
+      <c r="E4">
+        <v>3.59E-4</v>
+      </c>
+      <c r="F4">
+        <v>9.8999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0.8434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.84336100000000003</v>
+      </c>
+      <c r="E5">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="F5">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.3787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.37873600000000002</v>
+      </c>
+      <c r="E6">
+        <v>2.4139999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.51596799999999998</v>
+      </c>
+      <c r="E7">
+        <v>1.5120000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.7099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.70993399999999995</v>
+      </c>
+      <c r="E8">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>2.3800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.8114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.81137700000000001</v>
+      </c>
+      <c r="E9">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="F9">
+        <v>7.8999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.8943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.89433300000000004</v>
+      </c>
+      <c r="E10">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.9000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0.4343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.43426999999999999</v>
+      </c>
+      <c r="E11">
+        <v>2.369E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.34E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.6019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.60185999999999995</v>
+      </c>
+      <c r="E12">
+        <v>1.196E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.7600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0.7359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.73594000000000004</v>
+      </c>
+      <c r="E13">
+        <v>5.8299999999999997E-4</v>
+      </c>
+      <c r="F13">
+        <v>1.54E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0.8189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.81893000000000005</v>
+      </c>
+      <c r="E14">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="F14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0.8538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.85381799999999997</v>
+      </c>
+      <c r="E15">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0.5887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.58867999999999998</v>
+      </c>
+      <c r="E16">
+        <v>1.4419999999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>5.9299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0.7729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.77292099999999997</v>
+      </c>
+      <c r="E17">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>2.24E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0.8629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.86290599999999995</v>
+      </c>
+      <c r="E18">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="F18">
+        <v>7.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>0.8946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.89458099999999996</v>
+      </c>
+      <c r="E19">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="F19">
+        <v>2.6999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0.6542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.65423900000000001</v>
+      </c>
+      <c r="E20">
+        <v>2.366E-3</v>
+      </c>
+      <c r="F20">
+        <v>8.1800000000000004E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0.6995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.69948699999999997</v>
+      </c>
+      <c r="E21">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>3.6299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>0.8085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.80852800000000002</v>
+      </c>
+      <c r="E22">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.34E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>0.8594000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.85942799999999997</v>
+      </c>
+      <c r="E23">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="F23">
+        <v>4.6999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0.5432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.54316600000000004</v>
+      </c>
+      <c r="E24">
+        <v>2.846E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>0.6578000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.65775600000000001</v>
+      </c>
+      <c r="E25">
+        <v>1.8580000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>6.3599999999999996E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>0.7237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.72367499999999996</v>
+      </c>
+      <c r="E26">
+        <v>1.024E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>0.7936</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.79359100000000005</v>
+      </c>
+      <c r="E27">
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="F27">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>0.3495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.34947</v>
+      </c>
+      <c r="E28">
+        <v>1.7520000000000001E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>0.5411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.54114099999999998</v>
+      </c>
+      <c r="E29">
+        <v>8.43E-4</v>
+      </c>
+      <c r="F29">
+        <v>3.8699999999999997E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0.7105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.71051299999999995</v>
+      </c>
+      <c r="E30">
+        <v>3.4099999999999999E-4</v>
+      </c>
+      <c r="F30">
+        <v>9.8999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>0.8421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.84206599999999998</v>
+      </c>
+      <c r="E31">
+        <v>1.8599999999999999E-4</v>
+      </c>
+      <c r="F31">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>0.3636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.36358299999999999</v>
+      </c>
+      <c r="E32">
+        <v>2.3570000000000002E-3</v>
+      </c>
+      <c r="F32">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>0.5142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.51419599999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.5070000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>7.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.69596599999999997</v>
+      </c>
+      <c r="E34">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="F34">
+        <v>2.3800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>0.7927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.79269599999999996</v>
+      </c>
+      <c r="E35">
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="F35">
+        <v>7.8999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>0.9003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.90028900000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="F36">
+        <v>1.9000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>0.4361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.436141</v>
+      </c>
+      <c r="E37">
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="F37">
+        <v>1.34E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>0.6067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.606657</v>
+      </c>
+      <c r="E38">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="F38">
+        <v>4.7600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>0.7359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.73594000000000004</v>
+      </c>
+      <c r="E39">
+        <v>5.8299999999999997E-4</v>
+      </c>
+      <c r="F39">
+        <v>1.54E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>0.8189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.81893000000000005</v>
+      </c>
+      <c r="E40">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="F40">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>0.8564000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.856429</v>
+      </c>
+      <c r="E41">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F41">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>0.5887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.58867999999999998</v>
+      </c>
+      <c r="E42">
+        <v>1.4419999999999999E-3</v>
+      </c>
+      <c r="F42">
+        <v>5.9299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>0.7698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.76980999999999999</v>
+      </c>
+      <c r="E43">
+        <v>9.7300000000000002E-4</v>
+      </c>
+      <c r="F43">
+        <v>2.24E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>0.8629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.86290599999999995</v>
+      </c>
+      <c r="E44">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="F44">
+        <v>7.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>0.8887</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.88872499999999999</v>
+      </c>
+      <c r="E45">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="F45">
+        <v>2.6999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>0.6493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.64934099999999995</v>
+      </c>
+      <c r="E46">
+        <v>2.333E-3</v>
+      </c>
+      <c r="F46">
+        <v>8.1800000000000004E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>0.7163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.71634699999999996</v>
+      </c>
+      <c r="E47">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="F47">
+        <v>3.6299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>0.8016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.80156499999999997</v>
+      </c>
+      <c r="E48">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="F48">
+        <v>1.34E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>0.8482</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.84818199999999999</v>
+      </c>
+      <c r="E49">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="F49">
+        <v>4.6999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>0.5441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.54414899999999999</v>
+      </c>
+      <c r="E50">
+        <v>2.8519999999999999E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>0.6535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.65351300000000001</v>
+      </c>
+      <c r="E51">
+        <v>1.836E-3</v>
+      </c>
+      <c r="F51">
+        <v>6.3599999999999996E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>0.7108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.71082299999999998</v>
+      </c>
+      <c r="E52">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="F52">
+        <v>2.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>0.7835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.78352200000000005</v>
+      </c>
+      <c r="E53">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="F53">
+        <v>1.01E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>0.303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.30302200000000001</v>
+      </c>
+      <c r="E54">
+        <v>1.9369999999999999E-3</v>
+      </c>
+      <c r="F54">
+        <v>1.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>0.4087</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.40866599999999997</v>
+      </c>
+      <c r="E55">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="F55">
+        <v>4.7399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>0.6463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.64630299999999996</v>
+      </c>
+      <c r="E56">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="F56">
+        <v>1.25E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>0.7664</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.76639500000000005</v>
+      </c>
+      <c r="E57">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="F57">
+        <v>3.6999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>0.3597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.35966199999999998</v>
+      </c>
+      <c r="E58">
+        <v>2.7169999999999998E-3</v>
+      </c>
+      <c r="F58">
+        <v>1.74E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>0.4795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.47953099999999999</v>
+      </c>
+      <c r="E59">
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="F59">
+        <v>8.6200000000000003E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>0.6725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.67249499999999995</v>
+      </c>
+      <c r="E60">
+        <v>8.7900000000000001E-4</v>
+      </c>
+      <c r="F60">
+        <v>2.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>0.7719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.77193299999999998</v>
+      </c>
+      <c r="E61">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="F61">
+        <v>9.7E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>0.8627</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.86271699999999996</v>
+      </c>
+      <c r="E62">
+        <v>1.65E-4</v>
+      </c>
+      <c r="F62">
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>0.3957</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.39566299999999999</v>
+      </c>
+      <c r="E63">
+        <v>2.532E-3</v>
+      </c>
+      <c r="F63">
+        <v>1.5299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>0.5883</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.58827600000000002</v>
+      </c>
+      <c r="E64">
+        <v>1.3550000000000001E-3</v>
+      </c>
+      <c r="F64">
+        <v>5.5800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>0.6931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.69306299999999998</v>
+      </c>
+      <c r="E65">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="F65">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>0.8005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.80049800000000004</v>
+      </c>
+      <c r="E66">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="F66">
+        <v>4.8000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>0.8494</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.84944900000000001</v>
+      </c>
+      <c r="E67">
+        <v>1.56E-4</v>
+      </c>
+      <c r="F67">
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>0.5857</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.58574499999999996</v>
+      </c>
+      <c r="E68">
+        <v>1.6609999999999999E-3</v>
+      </c>
+      <c r="F68">
+        <v>6.8800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.74503399999999997</v>
+      </c>
+      <c r="E69">
+        <v>1.039E-3</v>
+      </c>
+      <c r="F69">
+        <v>2.6499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>0.8541</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.85406199999999999</v>
+      </c>
+      <c r="E70">
+        <v>5.9500000000000004E-4</v>
+      </c>
+      <c r="F70">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>0.898</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.89802000000000004</v>
+      </c>
+      <c r="E71">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="F71">
+        <v>3.1000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>0.6363</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.63628200000000001</v>
+      </c>
+      <c r="E72">
+        <v>2.5709999999999999E-3</v>
+      </c>
+      <c r="F72">
+        <v>9.3499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>0.7133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.713287</v>
+      </c>
+      <c r="E73">
+        <v>1.4679999999999999E-3</v>
+      </c>
+      <c r="F73">
+        <v>4.2099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>0.8072</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.80717300000000003</v>
+      </c>
+      <c r="E74">
+        <v>8.1400000000000005E-4</v>
+      </c>
+      <c r="F74">
+        <v>1.5699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>0.8589</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.858927</v>
+      </c>
+      <c r="E75">
+        <v>3.8499999999999998E-4</v>
+      </c>
+      <c r="F75">
+        <v>5.3999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>0.5423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.54231499999999999</v>
+      </c>
+      <c r="E76">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="F76">
+        <v>1.4599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>0.6466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.64661000000000002</v>
+      </c>
+      <c r="E77">
+        <v>2.0460000000000001E-3</v>
+      </c>
+      <c r="F77">
+        <v>7.2300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>0.727</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.72698399999999996</v>
+      </c>
+      <c r="E78">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="F78">
+        <v>3.2499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>0.8076</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.80764499999999995</v>
+      </c>
+      <c r="E79">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="F79">
+        <v>1.16E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>2.7200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>0.257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.25697300000000001</v>
+      </c>
+      <c r="E81">
+        <v>1.4940000000000001E-3</v>
+      </c>
+      <c r="F81">
+        <v>1.1100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>0.4907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.49067899999999998</v>
+      </c>
+      <c r="E82">
+        <v>6.87E-4</v>
+      </c>
+      <c r="F82">
+        <v>3.5E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.69598400000000005</v>
+      </c>
+      <c r="E83">
+        <v>3.59E-4</v>
+      </c>
+      <c r="F83">
+        <v>1.0900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>0.2903</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.29028999999999999</v>
+      </c>
+      <c r="E85">
+        <v>2.4380000000000001E-3</v>
+      </c>
+      <c r="F85">
+        <v>1.73E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.50097599999999998</v>
+      </c>
+      <c r="E86">
+        <v>1.3129999999999999E-3</v>
+      </c>
+      <c r="F86">
+        <v>6.5499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>0.654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.65396500000000002</v>
+      </c>
+      <c r="E87">
+        <v>6.96E-4</v>
+      </c>
+      <c r="F87">
+        <v>2.41E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>0.8332000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.83315700000000004</v>
+      </c>
+      <c r="E88">
+        <v>3.48E-4</v>
+      </c>
+      <c r="F88">
+        <v>5.8E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>0.2498</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.24981800000000001</v>
+      </c>
+      <c r="E89">
+        <v>3.5590000000000001E-3</v>
+      </c>
+      <c r="F89">
+        <v>2.6700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>0.4038</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.403779</v>
+      </c>
+      <c r="E90">
+        <v>1.8450000000000001E-3</v>
+      </c>
+      <c r="F90">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>0.5566</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.55662800000000001</v>
+      </c>
+      <c r="E91">
+        <v>9.2199999999999997E-4</v>
+      </c>
+      <c r="F91">
+        <v>4.0900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>0.7413999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.74139699999999997</v>
+      </c>
+      <c r="E92">
+        <v>4.37E-4</v>
+      </c>
+      <c r="F92">
+        <v>1.13E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>0.8105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.81050999999999995</v>
+      </c>
+      <c r="E93">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="F93">
+        <v>5.1E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>0.4888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.48881000000000002</v>
+      </c>
+      <c r="E94">
+        <v>2.5630000000000002E-3</v>
+      </c>
+      <c r="F94">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>0.6195000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.61945600000000001</v>
+      </c>
+      <c r="E95">
+        <v>1.4430000000000001E-3</v>
+      </c>
+      <c r="F95">
+        <v>5.4900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>0.7662</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.76619899999999996</v>
+      </c>
+      <c r="E96">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="F96">
+        <v>1.92E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>0.8325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.83254399999999995</v>
+      </c>
+      <c r="E97">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F97">
+        <v>6.7000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>0.454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.45397999999999999</v>
+      </c>
+      <c r="E98">
+        <v>3.058E-3</v>
+      </c>
+      <c r="F98">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>0.5810999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.58108099999999996</v>
+      </c>
+      <c r="E99">
+        <v>1.9220000000000001E-3</v>
+      </c>
+      <c r="F99">
+        <v>8.0500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>0.7092000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.70921400000000001</v>
+      </c>
+      <c r="E100">
+        <v>1.1039999999999999E-3</v>
+      </c>
+      <c r="F100">
+        <v>3.21E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>0.7893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.78927999999999998</v>
+      </c>
+      <c r="E101">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="F101">
+        <v>1.12E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>0.3767</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.37670500000000001</v>
+      </c>
+      <c r="E102">
+        <v>3.8509999999999998E-3</v>
+      </c>
+      <c r="F102">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>0.5116000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>0.51156400000000002</v>
+      </c>
+      <c r="E103">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="F103">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D104">
-        <v>0.6236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>0.62363500000000005</v>
+      </c>
+      <c r="E104">
+        <v>1.5920000000000001E-3</v>
+      </c>
+      <c r="F104">
+        <v>5.9900000000000003E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>0.7185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>0.71851100000000001</v>
+      </c>
+      <c r="E105">
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="F105">
+        <v>2.24E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>0.5694</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>0.56943500000000002</v>
+      </c>
+      <c r="E106">
+        <v>1.189E-3</v>
+      </c>
+      <c r="F106">
+        <v>5.1199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>0.6883</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>0.68831399999999998</v>
+      </c>
+      <c r="E107">
+        <v>4.7800000000000002E-4</v>
+      </c>
+      <c r="F107">
+        <v>1.4899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>0.8379</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>0.83791099999999996</v>
+      </c>
+      <c r="E108">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="F108">
+        <v>3.4E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>0.8807</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>0.880714</v>
+      </c>
+      <c r="E109">
+        <v>9.2E-5</v>
+      </c>
+      <c r="F109">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>0.5837</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>0.58369599999999999</v>
+      </c>
+      <c r="E110">
+        <v>1.768E-3</v>
+      </c>
+      <c r="F110">
+        <v>7.36E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>0.7066</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>0.70655599999999996</v>
+      </c>
+      <c r="E111">
+        <v>1.152E-3</v>
+      </c>
+      <c r="F111">
+        <v>3.3799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>0.8312</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>0.83115899999999998</v>
+      </c>
+      <c r="E112">
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="F112">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>0.8975</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>0.89749599999999996</v>
+      </c>
+      <c r="E113">
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="F113">
+        <v>3.1999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>0.9316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>0.93162100000000003</v>
+      </c>
+      <c r="E114">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="F114">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>0.6194</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>0.61935200000000001</v>
+      </c>
+      <c r="E115">
+        <v>1.918E-3</v>
+      </c>
+      <c r="F115">
+        <v>7.2999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>0.7518</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>0.75175499999999995</v>
+      </c>
+      <c r="E116">
+        <v>9.2199999999999997E-4</v>
+      </c>
+      <c r="F116">
+        <v>2.2900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>0.8421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>0.84209199999999995</v>
+      </c>
+      <c r="E117">
+        <v>4.37E-4</v>
+      </c>
+      <c r="F117">
+        <v>6.8999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>0.9008</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>0.90081</v>
+      </c>
+      <c r="E118">
+        <v>1.84E-4</v>
+      </c>
+      <c r="F118">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>0.8888</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>0.88877799999999996</v>
+      </c>
+      <c r="E119">
+        <v>9.7E-5</v>
+      </c>
+      <c r="F119">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>0.7583</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>0.75834000000000001</v>
+      </c>
+      <c r="E120">
+        <v>1.2210000000000001E-3</v>
+      </c>
+      <c r="F120">
+        <v>2.9500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D121">
-        <v>0.8635</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>0.86354699999999995</v>
+      </c>
+      <c r="E121">
+        <v>7.7700000000000002E-4</v>
+      </c>
+      <c r="F121">
+        <v>1.06E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>0.9256</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>0.92555100000000001</v>
+      </c>
+      <c r="E122">
+        <v>4.66E-4</v>
+      </c>
+      <c r="F122">
+        <v>3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D123">
-        <v>0.9294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>0.92941300000000004</v>
+      </c>
+      <c r="E123">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F123">
+        <v>1.4E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>0.766</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>0.76604799999999995</v>
+      </c>
+      <c r="E124">
+        <v>1.8810000000000001E-3</v>
+      </c>
+      <c r="F124">
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>0.8411999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>0.84123400000000004</v>
+      </c>
+      <c r="E125">
+        <v>1.165E-3</v>
+      </c>
+      <c r="F125">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>0.9008</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>0.90083100000000005</v>
+      </c>
+      <c r="E126">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="F126">
+        <v>6.7000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>0.914</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>0.914045</v>
+      </c>
+      <c r="E127">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="F127">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>0.6987</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>0.69872900000000004</v>
+      </c>
+      <c r="E128">
+        <v>2.5360000000000001E-3</v>
+      </c>
+      <c r="F128">
+        <v>7.6400000000000003E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>0.7834</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>0.78335999999999995</v>
+      </c>
+      <c r="E129">
+        <v>1.629E-3</v>
+      </c>
+      <c r="F129">
+        <v>3.5300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D130">
-        <v>0.8447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>0.84470800000000001</v>
+      </c>
+      <c r="E130">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="F130">
+        <v>1.5300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>0.8804</v>
+        <v>0.88036700000000001</v>
+      </c>
+      <c r="E131">
+        <v>4.55E-4</v>
+      </c>
+      <c r="F131">
+        <v>5.3999999999999998E-5</v>
       </c>
     </row>
   </sheetData>
